--- a/abhibus_data.xlsx
+++ b/abhibus_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Revathi Reddy\PycharmProjects\Abhibus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Revathi Reddy\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E960E61F-4887-4181-88AF-82A30F2BBF14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098AA3D9-E680-4E35-B8A9-6DA2A192ED76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E046CC82-E36B-4B10-9368-33C9F6E5DFB8}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
   <si>
     <t>logical_name</t>
   </si>
@@ -151,15 +151,15 @@
     <t>//li[@class='ui-state-default ui-corner-top ui-tabs-active ui-state-active']</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>age</t>
   </si>
   <si>
     <t>email</t>
   </si>
   <si>
-    <t>ph_no</t>
-  </si>
-  <si>
     <t>Bangalore</t>
   </si>
   <si>
@@ -169,16 +169,10 @@
     <t>revathireddy382@gmail.com</t>
   </si>
   <si>
-    <t>##44gmail</t>
-  </si>
-  <si>
-    <t>12@#45</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>Revanth</t>
+    <t>Yugesh</t>
+  </si>
+  <si>
+    <t>login_no</t>
   </si>
   <si>
     <t>mobile</t>
@@ -563,7 +557,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection sqref="A1:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -791,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8441311E-B11C-4AE5-A1BE-9FF855348063}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -800,11 +794,11 @@
     <col min="1" max="1" width="16.21875" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="24.21875" customWidth="1"/>
-    <col min="4" max="4" width="28.44140625" customWidth="1"/>
-    <col min="5" max="5" width="21.109375" customWidth="1"/>
-    <col min="6" max="6" width="29.44140625" customWidth="1"/>
-    <col min="7" max="7" width="25.21875" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" customWidth="1"/>
+    <col min="5" max="5" width="29.44140625" customWidth="1"/>
+    <col min="6" max="6" width="25.21875" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -815,19 +809,19 @@
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -843,14 +837,14 @@
       <c r="D2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="3">
-        <v>6409871234</v>
-      </c>
-      <c r="F2">
+      <c r="E2">
+        <v>6308675413</v>
+      </c>
+      <c r="F2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2">
         <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -860,30 +854,13 @@
       <c r="B3" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3">
-        <v>1233</v>
-      </c>
-      <c r="F3">
-        <v>100</v>
-      </c>
-      <c r="G3">
-        <v>123</v>
-      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{800B5E62-90E0-47F7-A809-85EAB62961D8}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{03AF23B5-86FE-4BC3-8685-8E96D3233525}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{03AF23B5-86FE-4BC3-8685-8E96D3233525}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
